--- a/storage/locations.xlsx
+++ b/storage/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\blacibu\blacibu-backend\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD54CF2-E5C1-44E6-A987-7DF737F24651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F98B25-A475-43BD-8A6C-63786F4A0139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3986" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="1484">
   <si>
     <t>id</t>
   </si>
@@ -4458,6 +4458,27 @@
   </si>
   <si>
     <t>insert into app.locations(type_id,parent_id,code,name) values(39,273,'9003','EL PIEDRERO');</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>BOLIVIANA</t>
+  </si>
+  <si>
+    <t>BRASILEÑA</t>
+  </si>
+  <si>
+    <t>CHILENA</t>
+  </si>
+  <si>
+    <t>COLOMBIANA</t>
+  </si>
+  <si>
+    <t>CUBANA</t>
+  </si>
+  <si>
+    <t>ECUATORIANA</t>
   </si>
 </sst>
 </file>
@@ -7802,10 +7823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9C0004-7D69-41C2-9F09-5ACAF4253FF2}">
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E248"/>
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7813,7 +7834,7 @@
     <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7826,15 +7847,15 @@
       <c r="E1">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="str">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="str">
         <f>_xlfn.CONCAT("insert into app.locations(type_id,code,name) values(",E1,",'",C1,"','",D1,"');")</f>
         <v>insert into app.locations(type_id,code,name) values(38,'1','AFGANISTÁN');</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7847,15 +7868,15 @@
       <c r="E2">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G65" si="0">_xlfn.CONCAT("insert into app.locations(type_id,code,name) values(",E2,",'",C2,"','",D2,"');")</f>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H65" si="0">_xlfn.CONCAT("insert into app.locations(type_id,code,name) values(",E2,",'",C2,"','",D2,"');")</f>
         <v>insert into app.locations(type_id,code,name) values(38,'2','ALBANIA');</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7868,15 +7889,15 @@
       <c r="E3">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="str">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'3','ALEMANIA');</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7889,15 +7910,15 @@
       <c r="E4">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="str">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'4','ANDORRA');</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7910,15 +7931,15 @@
       <c r="E5">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="str">
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'5','ANGOLA');</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7931,15 +7952,15 @@
       <c r="E6">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'6','ANGUILA');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -7952,15 +7973,15 @@
       <c r="E7">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="str">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'7','ANTIGUA Y BARBUDA');</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -7973,15 +7994,15 @@
       <c r="E8">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="str">
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'8','ARABIA SAUDITA');</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -7994,15 +8015,15 @@
       <c r="E9">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="str">
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'9','ARGELIA');</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -8016,14 +8037,17 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="str">
+        <v>1477</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'10','ARGENTINA');</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -8036,15 +8060,15 @@
       <c r="E11">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="str">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'11','ARMENIA');</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -8057,15 +8081,15 @@
       <c r="E12">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="str">
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'12','ARUBA');</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -8078,15 +8102,15 @@
       <c r="E13">
         <v>38</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="str">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'13','AUSTRALIA');</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -8099,15 +8123,15 @@
       <c r="E14">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="str">
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'14','AUSTRIA');</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -8120,15 +8144,15 @@
       <c r="E15">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="str">
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'15','AZERBAIYÁN');</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -8141,15 +8165,15 @@
       <c r="E16">
         <v>38</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="str">
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'16','BAHAMAS');</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -8162,15 +8186,15 @@
       <c r="E17">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="str">
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'17','BAHREIN');</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -8183,15 +8207,15 @@
       <c r="E18">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="str">
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'18','BANGLADESH');</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -8204,15 +8228,15 @@
       <c r="E19">
         <v>38</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="str">
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'19','BARBADOS');</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -8225,15 +8249,15 @@
       <c r="E20">
         <v>38</v>
       </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="str">
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'20','BÉLGICA');</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -8246,15 +8270,15 @@
       <c r="E21">
         <v>38</v>
       </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="str">
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'21','BELICE');</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -8267,15 +8291,15 @@
       <c r="E22">
         <v>38</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="str">
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'22','BENIN');</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -8288,15 +8312,15 @@
       <c r="E23">
         <v>38</v>
       </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="str">
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'23','BERMUDAS');</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -8309,15 +8333,15 @@
       <c r="E24">
         <v>38</v>
       </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="str">
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'24','BIELORRUSIA');</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -8331,14 +8355,17 @@
         <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="str">
+        <v>1478</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'25','BOLIVIA');</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -8351,15 +8378,15 @@
       <c r="E26">
         <v>38</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="str">
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'26','BONAIRE, SAN EUSTAQUIO Y SABA');</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -8372,15 +8399,15 @@
       <c r="E27">
         <v>38</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="str">
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'27','BOSNIA Y HERZEGOVINA');</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -8393,15 +8420,15 @@
       <c r="E28">
         <v>38</v>
       </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="str">
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'28','BOTSWANA');</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -8415,14 +8442,17 @@
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="str">
+        <v>1479</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'29','BRASIL');</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -8435,15 +8465,15 @@
       <c r="E30">
         <v>38</v>
       </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="str">
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'30','BRUNEI DARUSSALAM');</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -8456,15 +8486,15 @@
       <c r="E31">
         <v>38</v>
       </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="str">
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'31','BULGARIA');</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -8477,15 +8507,15 @@
       <c r="E32">
         <v>38</v>
       </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="str">
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'32','BURKINA FASO');</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -8498,15 +8528,15 @@
       <c r="E33">
         <v>38</v>
       </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="str">
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'33','BURUNDI');</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -8519,15 +8549,15 @@
       <c r="E34">
         <v>38</v>
       </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="str">
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'34','BUTÁN');</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -8540,15 +8570,15 @@
       <c r="E35">
         <v>38</v>
       </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="str">
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'35','CABO VERDE');</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -8561,15 +8591,15 @@
       <c r="E36">
         <v>38</v>
       </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="str">
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'36','CAMBOYA');</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -8582,15 +8612,15 @@
       <c r="E37">
         <v>38</v>
       </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="str">
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'37','CAMERÚN');</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -8603,15 +8633,15 @@
       <c r="E38">
         <v>38</v>
       </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="str">
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'38','CANADA');</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -8624,15 +8654,15 @@
       <c r="E39">
         <v>38</v>
       </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="str">
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'39','CHAD');</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -8646,14 +8676,17 @@
         <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="str">
+        <v>1480</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'40','CHILE');</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -8666,15 +8699,15 @@
       <c r="E41">
         <v>38</v>
       </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="str">
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'41','CHINA');</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -8687,15 +8720,15 @@
       <c r="E42">
         <v>38</v>
       </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="str">
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'42','CHIPRE');</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -8709,14 +8742,17 @@
         <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="str">
+        <v>1481</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'43','COLOMBIA');</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -8729,15 +8765,15 @@
       <c r="E44">
         <v>38</v>
       </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="str">
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'44','COMORAS');</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -8750,15 +8786,15 @@
       <c r="E45">
         <v>38</v>
       </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="str">
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'45','CONGO');</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -8771,15 +8807,15 @@
       <c r="E46">
         <v>38</v>
       </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="str">
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'46','COREA DEL NORTE');</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -8792,15 +8828,15 @@
       <c r="E47">
         <v>38</v>
       </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="str">
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'47','COREA DEL SUR');</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -8813,15 +8849,15 @@
       <c r="E48">
         <v>38</v>
       </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="str">
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'48','COSTA DE MARﬁL');</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -8834,15 +8870,15 @@
       <c r="E49">
         <v>38</v>
       </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="str">
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'49','COSTA RICA');</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -8855,15 +8891,15 @@
       <c r="E50">
         <v>38</v>
       </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="str">
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'50','CROACIA');</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -8877,14 +8913,17 @@
         <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="str">
+        <v>1482</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'51','CUBA');</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -8897,15 +8936,15 @@
       <c r="E52">
         <v>38</v>
       </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="str">
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'52','CURAÇAO');</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -8918,15 +8957,15 @@
       <c r="E53">
         <v>38</v>
       </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="str">
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'53','DINAMARCA');</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -8939,15 +8978,15 @@
       <c r="E54">
         <v>38</v>
       </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="str">
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'54','DJIBOUTI');</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -8960,15 +8999,15 @@
       <c r="E55">
         <v>38</v>
       </c>
-      <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="str">
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'55','DOMINICA');</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -8982,14 +9021,17 @@
         <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="str">
+        <v>1483</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'56','ECUADOR');</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -9002,15 +9044,15 @@
       <c r="E57">
         <v>38</v>
       </c>
-      <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="str">
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'57','EGIPTO');</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -9023,15 +9065,15 @@
       <c r="E58">
         <v>38</v>
       </c>
-      <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="str">
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'58','EL SALVADOR');</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -9044,15 +9086,15 @@
       <c r="E59">
         <v>38</v>
       </c>
-      <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="str">
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'59','EL VATICANO');</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -9065,15 +9107,15 @@
       <c r="E60">
         <v>38</v>
       </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="str">
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'60','EMIRATOS ÁRABES UNIDOS');</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -9086,15 +9128,15 @@
       <c r="E61">
         <v>38</v>
       </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="str">
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'61','ERITREA');</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -9107,15 +9149,15 @@
       <c r="E62">
         <v>38</v>
       </c>
-      <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="str">
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'62','ESLOVAQUIA');</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -9128,15 +9170,15 @@
       <c r="E63">
         <v>38</v>
       </c>
-      <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="str">
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'63','ESLOVENIA');</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -9149,15 +9191,15 @@
       <c r="E64">
         <v>38</v>
       </c>
-      <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="str">
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'64','ESPAÑA');</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -9170,15 +9212,15 @@
       <c r="E65">
         <v>38</v>
       </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="str">
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="str">
         <f t="shared" si="0"/>
         <v>insert into app.locations(type_id,code,name) values(38,'65','ESTADO DE PALESTINA');</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -9191,15 +9233,15 @@
       <c r="E66">
         <v>38</v>
       </c>
-      <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="str">
-        <f t="shared" ref="G66:G129" si="1">_xlfn.CONCAT("insert into app.locations(type_id,code,name) values(",E66,",'",C66,"','",D66,"');")</f>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" ref="H66:H129" si="1">_xlfn.CONCAT("insert into app.locations(type_id,code,name) values(",E66,",'",C66,"','",D66,"');")</f>
         <v>insert into app.locations(type_id,code,name) values(38,'66','ESTADOS UNIDOS DE AMÉRICA');</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -9212,15 +9254,15 @@
       <c r="E67">
         <v>38</v>
       </c>
-      <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="str">
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'67','ESTONIA');</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -9233,15 +9275,15 @@
       <c r="E68">
         <v>38</v>
       </c>
-      <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="str">
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'68','ETIOPÍA');</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -9254,15 +9296,15 @@
       <c r="E69">
         <v>38</v>
       </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="str">
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'69','FIYI');</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -9275,15 +9317,15 @@
       <c r="E70">
         <v>38</v>
       </c>
-      <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="str">
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'70','FILIPINAS');</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -9296,15 +9338,15 @@
       <c r="E71">
         <v>38</v>
       </c>
-      <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="str">
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'71','FINLANDIA');</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
@@ -9317,15 +9359,15 @@
       <c r="E72">
         <v>38</v>
       </c>
-      <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="str">
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'72','FRANCIA');</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -9338,15 +9380,15 @@
       <c r="E73">
         <v>38</v>
       </c>
-      <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="str">
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'73','GABÓN');</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -9359,15 +9401,15 @@
       <c r="E74">
         <v>38</v>
       </c>
-      <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="str">
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'74','GAMBIA');</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -9380,15 +9422,15 @@
       <c r="E75">
         <v>38</v>
       </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="str">
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'75','GEORGIA');</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -9401,15 +9443,15 @@
       <c r="E76">
         <v>38</v>
       </c>
-      <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="str">
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'76','GHANA');</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -9422,15 +9464,15 @@
       <c r="E77">
         <v>38</v>
       </c>
-      <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="str">
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'77','GIBRALTAR');</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -9443,15 +9485,15 @@
       <c r="E78">
         <v>38</v>
       </c>
-      <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="str">
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'78','GRANADA');</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
@@ -9464,15 +9506,15 @@
       <c r="E79">
         <v>38</v>
       </c>
-      <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="str">
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'79','GRECIA');</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -9485,15 +9527,15 @@
       <c r="E80">
         <v>38</v>
       </c>
-      <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="str">
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'80','GROENLANDIA');</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -9506,15 +9548,15 @@
       <c r="E81">
         <v>38</v>
       </c>
-      <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" t="str">
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'81','GUADALUPE');</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
@@ -9527,15 +9569,15 @@
       <c r="E82">
         <v>38</v>
       </c>
-      <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="str">
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'82','GUAM');</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -9548,15 +9590,15 @@
       <c r="E83">
         <v>38</v>
       </c>
-      <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="str">
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'83','GUATEMALA');</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
@@ -9569,15 +9611,15 @@
       <c r="E84">
         <v>38</v>
       </c>
-      <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="str">
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'84','GUAYANA FRANCESA');</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
@@ -9590,15 +9632,15 @@
       <c r="E85">
         <v>38</v>
       </c>
-      <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="str">
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'85','GUERNSEY');</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
@@ -9611,15 +9653,15 @@
       <c r="E86">
         <v>38</v>
       </c>
-      <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="str">
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'86','GUINEA');</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
@@ -9632,15 +9674,15 @@
       <c r="E87">
         <v>38</v>
       </c>
-      <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="str">
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'87','GUINEA ECUATORIAL');</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
@@ -9653,15 +9695,15 @@
       <c r="E88">
         <v>38</v>
       </c>
-      <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="str">
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'88','GUINEA-BISSAU');</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
@@ -9674,15 +9716,15 @@
       <c r="E89">
         <v>38</v>
       </c>
-      <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="str">
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'89','GUYANA');</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
@@ -9695,15 +9737,15 @@
       <c r="E90">
         <v>38</v>
       </c>
-      <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="str">
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'90','HAITÍ');</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
@@ -9716,15 +9758,15 @@
       <c r="E91">
         <v>38</v>
       </c>
-      <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="str">
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'91','HONDURAS');</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
@@ -9737,15 +9779,15 @@
       <c r="E92">
         <v>38</v>
       </c>
-      <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="str">
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'92','HONG KONG');</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
@@ -9758,15 +9800,15 @@
       <c r="E93">
         <v>38</v>
       </c>
-      <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="str">
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'93','HUNGRÍA');</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
@@ -9779,15 +9821,15 @@
       <c r="E94">
         <v>38</v>
       </c>
-      <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="str">
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'94','INDIA');</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
@@ -9800,15 +9842,15 @@
       <c r="E95">
         <v>38</v>
       </c>
-      <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="str">
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'95','INDONESIA');</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
@@ -9821,15 +9863,15 @@
       <c r="E96">
         <v>38</v>
       </c>
-      <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="str">
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'96','IRAK');</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
@@ -9842,15 +9884,15 @@
       <c r="E97">
         <v>38</v>
       </c>
-      <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="str">
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'97','IRÁN');</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
@@ -9863,15 +9905,15 @@
       <c r="E98">
         <v>38</v>
       </c>
-      <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="str">
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'98','IRLANDA');</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
@@ -9884,15 +9926,15 @@
       <c r="E99">
         <v>38</v>
       </c>
-      <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="str">
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'99','ISLA DE MAN');</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
@@ -9905,15 +9947,15 @@
       <c r="E100">
         <v>38</v>
       </c>
-      <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="str">
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'100','ISLA NORFOLK');</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
@@ -9926,15 +9968,15 @@
       <c r="E101">
         <v>38</v>
       </c>
-      <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="str">
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'101','ISLANDIA');</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>102</v>
       </c>
@@ -9947,15 +9989,15 @@
       <c r="E102">
         <v>38</v>
       </c>
-      <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="str">
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'102','ISLAS ÅLAND');</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>103</v>
       </c>
@@ -9968,15 +10010,15 @@
       <c r="E103">
         <v>38</v>
       </c>
-      <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="str">
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'103','ISLAS CAIMÁN');</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>104</v>
       </c>
@@ -9989,15 +10031,15 @@
       <c r="E104">
         <v>38</v>
       </c>
-      <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="str">
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'104','ISLAS COOK');</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>105</v>
       </c>
@@ -10010,15 +10052,15 @@
       <c r="E105">
         <v>38</v>
       </c>
-      <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="str">
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'106','ISLAS FEROE');</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>106</v>
       </c>
@@ -10031,15 +10073,15 @@
       <c r="E106">
         <v>38</v>
       </c>
-      <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="str">
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'107','ISLAS MALVINAS (FALKLAND)');</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>107</v>
       </c>
@@ -10052,15 +10094,15 @@
       <c r="E107">
         <v>38</v>
       </c>
-      <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="str">
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'108','ISLAS MARIANAS DEL NORTE');</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>108</v>
       </c>
@@ -10073,15 +10115,15 @@
       <c r="E108">
         <v>38</v>
       </c>
-      <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="str">
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'109','ISLAS MARSHALL');</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>109</v>
       </c>
@@ -10094,15 +10136,15 @@
       <c r="E109">
         <v>38</v>
       </c>
-      <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="str">
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'110','ISLAS SALOMÓN');</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>110</v>
       </c>
@@ -10115,15 +10157,15 @@
       <c r="E110">
         <v>38</v>
       </c>
-      <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="str">
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'111','ISLAS TURCAS Y CAICOS');</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>111</v>
       </c>
@@ -10136,15 +10178,15 @@
       <c r="E111">
         <v>38</v>
       </c>
-      <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="str">
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'112','ISLAS VÍRGENES AMERICANAS');</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>112</v>
       </c>
@@ -10157,15 +10199,15 @@
       <c r="E112">
         <v>38</v>
       </c>
-      <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="str">
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'113','ISLAS VÍRGENES BRITÁNICAS');</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>113</v>
       </c>
@@ -10178,15 +10220,15 @@
       <c r="E113">
         <v>38</v>
       </c>
-      <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="str">
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'114','ISLAS WALLIS Y FUTUNA');</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>114</v>
       </c>
@@ -10199,15 +10241,15 @@
       <c r="E114">
         <v>38</v>
       </c>
-      <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="str">
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'115','ISRAEL');</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>115</v>
       </c>
@@ -10220,15 +10262,15 @@
       <c r="E115">
         <v>38</v>
       </c>
-      <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="str">
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'116','ITALIA');</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>116</v>
       </c>
@@ -10241,15 +10283,15 @@
       <c r="E116">
         <v>38</v>
       </c>
-      <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="str">
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'117','JAMAICA');</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>117</v>
       </c>
@@ -10262,15 +10304,15 @@
       <c r="E117">
         <v>38</v>
       </c>
-      <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="str">
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'118','JAPÓN');</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>118</v>
       </c>
@@ -10283,15 +10325,15 @@
       <c r="E118">
         <v>38</v>
       </c>
-      <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="str">
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'119','JERSEY');</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119</v>
       </c>
@@ -10304,15 +10346,15 @@
       <c r="E119">
         <v>38</v>
       </c>
-      <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="str">
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'120','JORDANIA');</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>120</v>
       </c>
@@ -10325,15 +10367,15 @@
       <c r="E120">
         <v>38</v>
       </c>
-      <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="str">
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'121','KAZAJSTÁN');</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>121</v>
       </c>
@@ -10346,15 +10388,15 @@
       <c r="E121">
         <v>38</v>
       </c>
-      <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" t="str">
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'122','KENYA');</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>122</v>
       </c>
@@ -10367,15 +10409,15 @@
       <c r="E122">
         <v>38</v>
       </c>
-      <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="str">
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'123','KIRGUISTÁN');</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>123</v>
       </c>
@@ -10388,15 +10430,15 @@
       <c r="E123">
         <v>38</v>
       </c>
-      <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="str">
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'124','KIRIBATI');</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>124</v>
       </c>
@@ -10409,15 +10451,15 @@
       <c r="E124">
         <v>38</v>
       </c>
-      <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="str">
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'125','KUWAIT');</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>125</v>
       </c>
@@ -10430,15 +10472,15 @@
       <c r="E125">
         <v>38</v>
       </c>
-      <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="str">
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'126','LA EX REPÚBLICA YUGOSLAVA DE MACEDONIA');</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>126</v>
       </c>
@@ -10451,15 +10493,15 @@
       <c r="E126">
         <v>38</v>
       </c>
-      <c r="F126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" t="str">
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'127','LESOTO');</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>127</v>
       </c>
@@ -10472,15 +10514,15 @@
       <c r="E127">
         <v>38</v>
       </c>
-      <c r="F127" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" t="str">
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'128','LETONIA');</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>128</v>
       </c>
@@ -10493,15 +10535,15 @@
       <c r="E128">
         <v>38</v>
       </c>
-      <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="str">
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'129','LÍBANO');</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>129</v>
       </c>
@@ -10514,15 +10556,15 @@
       <c r="E129">
         <v>38</v>
       </c>
-      <c r="F129" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" t="str">
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="str">
         <f t="shared" si="1"/>
         <v>insert into app.locations(type_id,code,name) values(38,'130','LIBERIA');</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>130</v>
       </c>
@@ -10535,15 +10577,15 @@
       <c r="E130">
         <v>38</v>
       </c>
-      <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="str">
-        <f t="shared" ref="G130:G193" si="2">_xlfn.CONCAT("insert into app.locations(type_id,code,name) values(",E130,",'",C130,"','",D130,"');")</f>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" ref="H130:H193" si="2">_xlfn.CONCAT("insert into app.locations(type_id,code,name) values(",E130,",'",C130,"','",D130,"');")</f>
         <v>insert into app.locations(type_id,code,name) values(38,'131','LIBIA');</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>131</v>
       </c>
@@ -10556,15 +10598,15 @@
       <c r="E131">
         <v>38</v>
       </c>
-      <c r="F131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" t="str">
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'132','LIECHTENSTEIN');</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>132</v>
       </c>
@@ -10577,15 +10619,15 @@
       <c r="E132">
         <v>38</v>
       </c>
-      <c r="F132" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" t="str">
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'133','LITUANIA');</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>133</v>
       </c>
@@ -10598,15 +10640,15 @@
       <c r="E133">
         <v>38</v>
       </c>
-      <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" t="str">
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'134','LUXEMBURGO');</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>134</v>
       </c>
@@ -10619,15 +10661,15 @@
       <c r="E134">
         <v>38</v>
       </c>
-      <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="str">
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'135','MACAO');</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>135</v>
       </c>
@@ -10640,15 +10682,15 @@
       <c r="E135">
         <v>38</v>
       </c>
-      <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" t="str">
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'136','MADAGASCAR');</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>136</v>
       </c>
@@ -10661,15 +10703,15 @@
       <c r="E136">
         <v>38</v>
       </c>
-      <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="str">
+      <c r="G136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'137','MALASIA');</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>137</v>
       </c>
@@ -10682,15 +10724,15 @@
       <c r="E137">
         <v>38</v>
       </c>
-      <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="str">
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'138','MALAUI');</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>138</v>
       </c>
@@ -10703,15 +10745,15 @@
       <c r="E138">
         <v>38</v>
       </c>
-      <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" t="str">
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'139','MALDIVAS');</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>139</v>
       </c>
@@ -10724,15 +10766,15 @@
       <c r="E139">
         <v>38</v>
       </c>
-      <c r="F139" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" t="str">
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'140','MALÍ');</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>140</v>
       </c>
@@ -10745,15 +10787,15 @@
       <c r="E140">
         <v>38</v>
       </c>
-      <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="str">
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'141','MALTA');</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>141</v>
       </c>
@@ -10766,15 +10808,15 @@
       <c r="E141">
         <v>38</v>
       </c>
-      <c r="F141" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" t="str">
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'142','MARRUECOS');</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>142</v>
       </c>
@@ -10787,15 +10829,15 @@
       <c r="E142">
         <v>38</v>
       </c>
-      <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" t="str">
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'143','MARTINICA');</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>143</v>
       </c>
@@ -10808,15 +10850,15 @@
       <c r="E143">
         <v>38</v>
       </c>
-      <c r="F143" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" t="str">
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'144','MAURICIO');</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>144</v>
       </c>
@@ -10829,15 +10871,15 @@
       <c r="E144">
         <v>38</v>
       </c>
-      <c r="F144" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" t="str">
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'145','MAURITANIA');</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>145</v>
       </c>
@@ -10850,15 +10892,15 @@
       <c r="E145">
         <v>38</v>
       </c>
-      <c r="F145" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" t="str">
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'146','MAYOTTE');</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>146</v>
       </c>
@@ -10871,15 +10913,15 @@
       <c r="E146">
         <v>38</v>
       </c>
-      <c r="F146" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" t="str">
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'147','MÉXICO');</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>147</v>
       </c>
@@ -10892,15 +10934,15 @@
       <c r="E147">
         <v>38</v>
       </c>
-      <c r="F147" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" t="str">
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'148','MICRONESIA');</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>148</v>
       </c>
@@ -10913,15 +10955,15 @@
       <c r="E148">
         <v>38</v>
       </c>
-      <c r="F148" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" t="str">
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'149','MÓNACO');</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>149</v>
       </c>
@@ -10934,15 +10976,15 @@
       <c r="E149">
         <v>38</v>
       </c>
-      <c r="F149" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" t="str">
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'150','MONGOLIA');</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>150</v>
       </c>
@@ -10955,15 +10997,15 @@
       <c r="E150">
         <v>38</v>
       </c>
-      <c r="F150" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" t="str">
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'151','MONTENEGRO');</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>151</v>
       </c>
@@ -10976,15 +11018,15 @@
       <c r="E151">
         <v>38</v>
       </c>
-      <c r="F151" t="s">
-        <v>12</v>
-      </c>
-      <c r="G151" t="str">
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'152','MONTSERRAT');</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>152</v>
       </c>
@@ -10997,15 +11039,15 @@
       <c r="E152">
         <v>38</v>
       </c>
-      <c r="F152" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" t="str">
+      <c r="G152" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'153','MOZAMBIQUE');</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>153</v>
       </c>
@@ -11018,15 +11060,15 @@
       <c r="E153">
         <v>38</v>
       </c>
-      <c r="F153" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153" t="str">
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'154','MYANMAR');</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>154</v>
       </c>
@@ -11039,15 +11081,15 @@
       <c r="E154">
         <v>38</v>
       </c>
-      <c r="F154" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" t="str">
+      <c r="G154" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'155','NAMIBIA');</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>155</v>
       </c>
@@ -11060,15 +11102,15 @@
       <c r="E155">
         <v>38</v>
       </c>
-      <c r="F155" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" t="str">
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'156','NAURU');</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>156</v>
       </c>
@@ -11081,15 +11123,15 @@
       <c r="E156">
         <v>38</v>
       </c>
-      <c r="F156" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" t="str">
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'157','NEPAL');</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>157</v>
       </c>
@@ -11102,15 +11144,15 @@
       <c r="E157">
         <v>38</v>
       </c>
-      <c r="F157" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" t="str">
+      <c r="G157" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'158','NICARAGUA');</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>158</v>
       </c>
@@ -11123,15 +11165,15 @@
       <c r="E158">
         <v>38</v>
       </c>
-      <c r="F158" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" t="str">
+      <c r="G158" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'159','NÍGER');</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>159</v>
       </c>
@@ -11144,15 +11186,15 @@
       <c r="E159">
         <v>38</v>
       </c>
-      <c r="F159" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" t="str">
+      <c r="G159" t="s">
+        <v>12</v>
+      </c>
+      <c r="H159" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'160','NIGERIA');</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>160</v>
       </c>
@@ -11165,15 +11207,15 @@
       <c r="E160">
         <v>38</v>
       </c>
-      <c r="F160" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" t="str">
+      <c r="G160" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'161','NIUE');</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>161</v>
       </c>
@@ -11186,15 +11228,15 @@
       <c r="E161">
         <v>38</v>
       </c>
-      <c r="F161" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" t="str">
+      <c r="G161" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'162','NORUEGA');</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>162</v>
       </c>
@@ -11207,15 +11249,15 @@
       <c r="E162">
         <v>38</v>
       </c>
-      <c r="F162" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" t="str">
+      <c r="G162" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'163','NUEVA CALEDONIA');</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>163</v>
       </c>
@@ -11228,15 +11270,15 @@
       <c r="E163">
         <v>38</v>
       </c>
-      <c r="F163" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" t="str">
+      <c r="G163" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'164','NUEVA ZELANDA');</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>164</v>
       </c>
@@ -11249,15 +11291,15 @@
       <c r="E164">
         <v>38</v>
       </c>
-      <c r="F164" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" t="str">
+      <c r="G164" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'165','OMÁN');</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>165</v>
       </c>
@@ -11270,15 +11312,15 @@
       <c r="E165">
         <v>38</v>
       </c>
-      <c r="F165" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" t="str">
+      <c r="G165" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'166','PAÍSES BAJOS');</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>166</v>
       </c>
@@ -11291,15 +11333,15 @@
       <c r="E166">
         <v>38</v>
       </c>
-      <c r="F166" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" t="str">
+      <c r="G166" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'167','PAKISTÁN');</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>167</v>
       </c>
@@ -11312,15 +11354,15 @@
       <c r="E167">
         <v>38</v>
       </c>
-      <c r="F167" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" t="str">
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'168','PALAU');</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>168</v>
       </c>
@@ -11333,15 +11375,15 @@
       <c r="E168">
         <v>38</v>
       </c>
-      <c r="F168" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" t="str">
+      <c r="G168" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'169','PANAMÁ');</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>169</v>
       </c>
@@ -11354,15 +11396,15 @@
       <c r="E169">
         <v>38</v>
       </c>
-      <c r="F169" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" t="str">
+      <c r="G169" t="s">
+        <v>12</v>
+      </c>
+      <c r="H169" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'170','PAPÚA NUEVA GUINEA');</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>170</v>
       </c>
@@ -11375,15 +11417,15 @@
       <c r="E170">
         <v>38</v>
       </c>
-      <c r="F170" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" t="str">
+      <c r="G170" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'171','PARAGUAY');</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>171</v>
       </c>
@@ -11396,15 +11438,15 @@
       <c r="E171">
         <v>38</v>
       </c>
-      <c r="F171" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" t="str">
+      <c r="G171" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'172','PERÚ');</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>172</v>
       </c>
@@ -11417,15 +11459,15 @@
       <c r="E172">
         <v>38</v>
       </c>
-      <c r="F172" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" t="str">
+      <c r="G172" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'173','PITCAIRN');</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>173</v>
       </c>
@@ -11438,15 +11480,15 @@
       <c r="E173">
         <v>38</v>
       </c>
-      <c r="F173" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" t="str">
+      <c r="G173" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'174','POLINESIA FRANCÉS');</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>174</v>
       </c>
@@ -11459,15 +11501,15 @@
       <c r="E174">
         <v>38</v>
       </c>
-      <c r="F174" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" t="str">
+      <c r="G174" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'175','POLONIA');</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>175</v>
       </c>
@@ -11480,15 +11522,15 @@
       <c r="E175">
         <v>38</v>
       </c>
-      <c r="F175" t="s">
-        <v>12</v>
-      </c>
-      <c r="G175" t="str">
+      <c r="G175" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'176','PORTUGAL');</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>176</v>
       </c>
@@ -11501,15 +11543,15 @@
       <c r="E176">
         <v>38</v>
       </c>
-      <c r="F176" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" t="str">
+      <c r="G176" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'177','PUERTO RICO');</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>177</v>
       </c>
@@ -11522,15 +11564,15 @@
       <c r="E177">
         <v>38</v>
       </c>
-      <c r="F177" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" t="str">
+      <c r="G177" t="s">
+        <v>12</v>
+      </c>
+      <c r="H177" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'178','QATAR');</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>178</v>
       </c>
@@ -11543,15 +11585,15 @@
       <c r="E178">
         <v>38</v>
       </c>
-      <c r="F178" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" t="str">
+      <c r="G178" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'179','REINO UNIDO DE GRAN BRETAÑA E IRLANDA DEL NORTE');</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>179</v>
       </c>
@@ -11564,15 +11606,15 @@
       <c r="E179">
         <v>38</v>
       </c>
-      <c r="F179" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" t="str">
+      <c r="G179" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'180','REPÚBLICA ÁRABE SIRIA');</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>180</v>
       </c>
@@ -11585,15 +11627,15 @@
       <c r="E180">
         <v>38</v>
       </c>
-      <c r="F180" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" t="str">
+      <c r="G180" t="s">
+        <v>12</v>
+      </c>
+      <c r="H180" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'181','REPÚBLICA CENTROAFRICANA');</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>181</v>
       </c>
@@ -11606,15 +11648,15 @@
       <c r="E181">
         <v>38</v>
       </c>
-      <c r="F181" t="s">
-        <v>12</v>
-      </c>
-      <c r="G181" t="str">
+      <c r="G181" t="s">
+        <v>12</v>
+      </c>
+      <c r="H181" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'182','REPÚBLICA CHECA');</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>182</v>
       </c>
@@ -11627,15 +11669,15 @@
       <c r="E182">
         <v>38</v>
       </c>
-      <c r="F182" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" t="str">
+      <c r="G182" t="s">
+        <v>12</v>
+      </c>
+      <c r="H182" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'183','REPÚBLICA DE MOLDAVIA');</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>183</v>
       </c>
@@ -11648,15 +11690,15 @@
       <c r="E183">
         <v>38</v>
       </c>
-      <c r="F183" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183" t="str">
+      <c r="G183" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'184','REPÚBLICA DEMOCRÁTICA DEL CONGO');</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>184</v>
       </c>
@@ -11669,15 +11711,15 @@
       <c r="E184">
         <v>38</v>
       </c>
-      <c r="F184" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" t="str">
+      <c r="G184" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'185','REPÚBLICA DEMOCRÁTICA POPULAR LAO');</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>185</v>
       </c>
@@ -11690,15 +11732,15 @@
       <c r="E185">
         <v>38</v>
       </c>
-      <c r="F185" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" t="str">
+      <c r="G185" t="s">
+        <v>12</v>
+      </c>
+      <c r="H185" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'186','REPÚBLICA DOMINICANA');</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>186</v>
       </c>
@@ -11711,15 +11753,15 @@
       <c r="E186">
         <v>38</v>
       </c>
-      <c r="F186" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" t="str">
+      <c r="G186" t="s">
+        <v>12</v>
+      </c>
+      <c r="H186" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'187','REPÚBLICA UNIDA DE TANZANIA');</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>187</v>
       </c>
@@ -11732,15 +11774,15 @@
       <c r="E187">
         <v>38</v>
       </c>
-      <c r="F187" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187" t="str">
+      <c r="G187" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'188','RÉUNION');</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>188</v>
       </c>
@@ -11753,15 +11795,15 @@
       <c r="E188">
         <v>38</v>
       </c>
-      <c r="F188" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" t="str">
+      <c r="G188" t="s">
+        <v>12</v>
+      </c>
+      <c r="H188" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'189','RUMANIA');</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>189</v>
       </c>
@@ -11774,15 +11816,15 @@
       <c r="E189">
         <v>38</v>
       </c>
-      <c r="F189" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" t="str">
+      <c r="G189" t="s">
+        <v>12</v>
+      </c>
+      <c r="H189" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'190','RUSIA');</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>190</v>
       </c>
@@ -11795,15 +11837,15 @@
       <c r="E190">
         <v>38</v>
       </c>
-      <c r="F190" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" t="str">
+      <c r="G190" t="s">
+        <v>12</v>
+      </c>
+      <c r="H190" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'191','RWANDA');</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>191</v>
       </c>
@@ -11816,15 +11858,15 @@
       <c r="E191">
         <v>38</v>
       </c>
-      <c r="F191" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" t="str">
+      <c r="G191" t="s">
+        <v>12</v>
+      </c>
+      <c r="H191" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'192','SÁHARA OCCIDENTAL');</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>192</v>
       </c>
@@ -11837,15 +11879,15 @@
       <c r="E192">
         <v>38</v>
       </c>
-      <c r="F192" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" t="str">
+      <c r="G192" t="s">
+        <v>12</v>
+      </c>
+      <c r="H192" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'193','SAINT-BARTHÉLEMY');</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>193</v>
       </c>
@@ -11858,15 +11900,15 @@
       <c r="E193">
         <v>38</v>
       </c>
-      <c r="F193" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" t="str">
+      <c r="G193" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" t="str">
         <f t="shared" si="2"/>
         <v>insert into app.locations(type_id,code,name) values(38,'194','SAINT-MARTIN');</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>194</v>
       </c>
@@ -11879,15 +11921,15 @@
       <c r="E194">
         <v>38</v>
       </c>
-      <c r="F194" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194" t="str">
-        <f t="shared" ref="G194:G248" si="3">_xlfn.CONCAT("insert into app.locations(type_id,code,name) values(",E194,",'",C194,"','",D194,"');")</f>
+      <c r="G194" t="s">
+        <v>12</v>
+      </c>
+      <c r="H194" t="str">
+        <f t="shared" ref="H194:H248" si="3">_xlfn.CONCAT("insert into app.locations(type_id,code,name) values(",E194,",'",C194,"','",D194,"');")</f>
         <v>insert into app.locations(type_id,code,name) values(38,'195','SAMOA');</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>195</v>
       </c>
@@ -11900,15 +11942,15 @@
       <c r="E195">
         <v>38</v>
       </c>
-      <c r="F195" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" t="str">
+      <c r="G195" t="s">
+        <v>12</v>
+      </c>
+      <c r="H195" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'196','SAMOA AMERICANA');</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>196</v>
       </c>
@@ -11921,15 +11963,15 @@
       <c r="E196">
         <v>38</v>
       </c>
-      <c r="F196" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196" t="str">
+      <c r="G196" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'197','SAN CRISTÓBAL Y NIEVES');</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>197</v>
       </c>
@@ -11942,15 +11984,15 @@
       <c r="E197">
         <v>38</v>
       </c>
-      <c r="F197" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" t="str">
+      <c r="G197" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'198','SAN MARINO');</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>198</v>
       </c>
@@ -11963,15 +12005,15 @@
       <c r="E198">
         <v>38</v>
       </c>
-      <c r="F198" t="s">
-        <v>12</v>
-      </c>
-      <c r="G198" t="str">
+      <c r="G198" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'199','SAN PEDRO Y MIQUELÓN');</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>199</v>
       </c>
@@ -11984,15 +12026,15 @@
       <c r="E199">
         <v>38</v>
       </c>
-      <c r="F199" t="s">
-        <v>12</v>
-      </c>
-      <c r="G199" t="str">
+      <c r="G199" t="s">
+        <v>12</v>
+      </c>
+      <c r="H199" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'200','SAN VICENTE Y LAS GRANADINAS');</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>200</v>
       </c>
@@ -12005,15 +12047,15 @@
       <c r="E200">
         <v>38</v>
       </c>
-      <c r="F200" t="s">
-        <v>12</v>
-      </c>
-      <c r="G200" t="str">
+      <c r="G200" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'201','SANTA ELENA');</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>201</v>
       </c>
@@ -12026,15 +12068,15 @@
       <c r="E201">
         <v>38</v>
       </c>
-      <c r="F201" t="s">
-        <v>12</v>
-      </c>
-      <c r="G201" t="str">
+      <c r="G201" t="s">
+        <v>12</v>
+      </c>
+      <c r="H201" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'202','SANTA LUCÍA');</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>202</v>
       </c>
@@ -12047,15 +12089,15 @@
       <c r="E202">
         <v>38</v>
       </c>
-      <c r="F202" t="s">
-        <v>12</v>
-      </c>
-      <c r="G202" t="str">
+      <c r="G202" t="s">
+        <v>12</v>
+      </c>
+      <c r="H202" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'203','SANTO TOMÉ Y PRÍNCIPE');</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>203</v>
       </c>
@@ -12068,15 +12110,15 @@
       <c r="E203">
         <v>38</v>
       </c>
-      <c r="F203" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" t="str">
+      <c r="G203" t="s">
+        <v>12</v>
+      </c>
+      <c r="H203" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'205','SENEGAL');</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>204</v>
       </c>
@@ -12089,15 +12131,15 @@
       <c r="E204">
         <v>38</v>
       </c>
-      <c r="F204" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" t="str">
+      <c r="G204" t="s">
+        <v>12</v>
+      </c>
+      <c r="H204" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'206','SERBIA');</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>205</v>
       </c>
@@ -12110,15 +12152,15 @@
       <c r="E205">
         <v>38</v>
       </c>
-      <c r="F205" t="s">
-        <v>12</v>
-      </c>
-      <c r="G205" t="str">
+      <c r="G205" t="s">
+        <v>12</v>
+      </c>
+      <c r="H205" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'207','SEYCHELLES');</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>206</v>
       </c>
@@ -12131,15 +12173,15 @@
       <c r="E206">
         <v>38</v>
       </c>
-      <c r="F206" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" t="str">
+      <c r="G206" t="s">
+        <v>12</v>
+      </c>
+      <c r="H206" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'208','SIERRA LEONA');</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>207</v>
       </c>
@@ -12152,15 +12194,15 @@
       <c r="E207">
         <v>38</v>
       </c>
-      <c r="F207" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" t="str">
+      <c r="G207" t="s">
+        <v>12</v>
+      </c>
+      <c r="H207" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'209','SINGAPUR');</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>208</v>
       </c>
@@ -12173,15 +12215,15 @@
       <c r="E208">
         <v>38</v>
       </c>
-      <c r="F208" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" t="str">
+      <c r="G208" t="s">
+        <v>12</v>
+      </c>
+      <c r="H208" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'210','SINT MAARTEN');</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>209</v>
       </c>
@@ -12194,15 +12236,15 @@
       <c r="E209">
         <v>38</v>
       </c>
-      <c r="F209" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" t="str">
+      <c r="G209" t="s">
+        <v>12</v>
+      </c>
+      <c r="H209" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'211','SOMALIA');</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>210</v>
       </c>
@@ -12215,15 +12257,15 @@
       <c r="E210">
         <v>38</v>
       </c>
-      <c r="F210" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" t="str">
+      <c r="G210" t="s">
+        <v>12</v>
+      </c>
+      <c r="H210" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'212','SRI LANKA');</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>211</v>
       </c>
@@ -12236,15 +12278,15 @@
       <c r="E211">
         <v>38</v>
       </c>
-      <c r="F211" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" t="str">
+      <c r="G211" t="s">
+        <v>12</v>
+      </c>
+      <c r="H211" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'213','SUDÁFRICA');</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>212</v>
       </c>
@@ -12257,15 +12299,15 @@
       <c r="E212">
         <v>38</v>
       </c>
-      <c r="F212" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" t="str">
+      <c r="G212" t="s">
+        <v>12</v>
+      </c>
+      <c r="H212" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'214','SUDÁN');</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>213</v>
       </c>
@@ -12278,15 +12320,15 @@
       <c r="E213">
         <v>38</v>
       </c>
-      <c r="F213" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" t="str">
+      <c r="G213" t="s">
+        <v>12</v>
+      </c>
+      <c r="H213" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'215','SUDÁN DEL SUR');</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>214</v>
       </c>
@@ -12299,15 +12341,15 @@
       <c r="E214">
         <v>38</v>
       </c>
-      <c r="F214" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" t="str">
+      <c r="G214" t="s">
+        <v>12</v>
+      </c>
+      <c r="H214" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'216','SUECIA');</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>215</v>
       </c>
@@ -12320,15 +12362,15 @@
       <c r="E215">
         <v>38</v>
       </c>
-      <c r="F215" t="s">
-        <v>12</v>
-      </c>
-      <c r="G215" t="str">
+      <c r="G215" t="s">
+        <v>12</v>
+      </c>
+      <c r="H215" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'217','SUIZA');</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>216</v>
       </c>
@@ -12341,15 +12383,15 @@
       <c r="E216">
         <v>38</v>
       </c>
-      <c r="F216" t="s">
-        <v>12</v>
-      </c>
-      <c r="G216" t="str">
+      <c r="G216" t="s">
+        <v>12</v>
+      </c>
+      <c r="H216" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'218','SURINAME');</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>217</v>
       </c>
@@ -12362,15 +12404,15 @@
       <c r="E217">
         <v>38</v>
       </c>
-      <c r="F217" t="s">
-        <v>12</v>
-      </c>
-      <c r="G217" t="str">
+      <c r="G217" t="s">
+        <v>12</v>
+      </c>
+      <c r="H217" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'219','SVALBARD Y JAN MAYEN');</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>218</v>
       </c>
@@ -12383,15 +12425,15 @@
       <c r="E218">
         <v>38</v>
       </c>
-      <c r="F218" t="s">
-        <v>12</v>
-      </c>
-      <c r="G218" t="str">
+      <c r="G218" t="s">
+        <v>12</v>
+      </c>
+      <c r="H218" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'220','SWAZILANDIA');</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>219</v>
       </c>
@@ -12404,15 +12446,15 @@
       <c r="E219">
         <v>38</v>
       </c>
-      <c r="F219" t="s">
-        <v>12</v>
-      </c>
-      <c r="G219" t="str">
+      <c r="G219" t="s">
+        <v>12</v>
+      </c>
+      <c r="H219" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'221','TAILANDIA');</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>220</v>
       </c>
@@ -12425,15 +12467,15 @@
       <c r="E220">
         <v>38</v>
       </c>
-      <c r="F220" t="s">
-        <v>12</v>
-      </c>
-      <c r="G220" t="str">
+      <c r="G220" t="s">
+        <v>12</v>
+      </c>
+      <c r="H220" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'222','TAYIKISTÁN');</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>221</v>
       </c>
@@ -12446,15 +12488,15 @@
       <c r="E221">
         <v>38</v>
       </c>
-      <c r="F221" t="s">
-        <v>12</v>
-      </c>
-      <c r="G221" t="str">
+      <c r="G221" t="s">
+        <v>12</v>
+      </c>
+      <c r="H221" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'223','TIMOR-LESTE');</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>222</v>
       </c>
@@ -12467,15 +12509,15 @@
       <c r="E222">
         <v>38</v>
       </c>
-      <c r="F222" t="s">
-        <v>12</v>
-      </c>
-      <c r="G222" t="str">
+      <c r="G222" t="s">
+        <v>12</v>
+      </c>
+      <c r="H222" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'224','TOGO');</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>223</v>
       </c>
@@ -12488,15 +12530,15 @@
       <c r="E223">
         <v>38</v>
       </c>
-      <c r="F223" t="s">
-        <v>12</v>
-      </c>
-      <c r="G223" t="str">
+      <c r="G223" t="s">
+        <v>12</v>
+      </c>
+      <c r="H223" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'225','TOKELAU');</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>224</v>
       </c>
@@ -12509,15 +12551,15 @@
       <c r="E224">
         <v>38</v>
       </c>
-      <c r="F224" t="s">
-        <v>12</v>
-      </c>
-      <c r="G224" t="str">
+      <c r="G224" t="s">
+        <v>12</v>
+      </c>
+      <c r="H224" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'226','TONGA');</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>225</v>
       </c>
@@ -12530,15 +12572,15 @@
       <c r="E225">
         <v>38</v>
       </c>
-      <c r="F225" t="s">
-        <v>12</v>
-      </c>
-      <c r="G225" t="str">
+      <c r="G225" t="s">
+        <v>12</v>
+      </c>
+      <c r="H225" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'227','TRINIDAD Y TOBAGO');</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>226</v>
       </c>
@@ -12551,15 +12593,15 @@
       <c r="E226">
         <v>38</v>
       </c>
-      <c r="F226" t="s">
-        <v>12</v>
-      </c>
-      <c r="G226" t="str">
+      <c r="G226" t="s">
+        <v>12</v>
+      </c>
+      <c r="H226" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'228','TÚNEZ');</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>227</v>
       </c>
@@ -12572,15 +12614,15 @@
       <c r="E227">
         <v>38</v>
       </c>
-      <c r="F227" t="s">
-        <v>12</v>
-      </c>
-      <c r="G227" t="str">
+      <c r="G227" t="s">
+        <v>12</v>
+      </c>
+      <c r="H227" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'229','TURKMENISTÁN');</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>228</v>
       </c>
@@ -12593,15 +12635,15 @@
       <c r="E228">
         <v>38</v>
       </c>
-      <c r="F228" t="s">
-        <v>12</v>
-      </c>
-      <c r="G228" t="str">
+      <c r="G228" t="s">
+        <v>12</v>
+      </c>
+      <c r="H228" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'230','TURQUÍA');</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>229</v>
       </c>
@@ -12614,15 +12656,15 @@
       <c r="E229">
         <v>38</v>
       </c>
-      <c r="F229" t="s">
-        <v>12</v>
-      </c>
-      <c r="G229" t="str">
+      <c r="G229" t="s">
+        <v>12</v>
+      </c>
+      <c r="H229" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'231','TUVALU');</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>230</v>
       </c>
@@ -12635,15 +12677,15 @@
       <c r="E230">
         <v>38</v>
       </c>
-      <c r="F230" t="s">
-        <v>12</v>
-      </c>
-      <c r="G230" t="str">
+      <c r="G230" t="s">
+        <v>12</v>
+      </c>
+      <c r="H230" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'232','UCRANIA');</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>231</v>
       </c>
@@ -12656,15 +12698,15 @@
       <c r="E231">
         <v>38</v>
       </c>
-      <c r="F231" t="s">
-        <v>12</v>
-      </c>
-      <c r="G231" t="str">
+      <c r="G231" t="s">
+        <v>12</v>
+      </c>
+      <c r="H231" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'233','UGANDA');</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>232</v>
       </c>
@@ -12677,15 +12719,15 @@
       <c r="E232">
         <v>38</v>
       </c>
-      <c r="F232" t="s">
-        <v>12</v>
-      </c>
-      <c r="G232" t="str">
+      <c r="G232" t="s">
+        <v>12</v>
+      </c>
+      <c r="H232" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'234','URUGUAY');</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>233</v>
       </c>
@@ -12698,15 +12740,15 @@
       <c r="E233">
         <v>38</v>
       </c>
-      <c r="F233" t="s">
-        <v>12</v>
-      </c>
-      <c r="G233" t="str">
+      <c r="G233" t="s">
+        <v>12</v>
+      </c>
+      <c r="H233" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'235','UZBEKISTÁN');</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>234</v>
       </c>
@@ -12719,15 +12761,15 @@
       <c r="E234">
         <v>38</v>
       </c>
-      <c r="F234" t="s">
-        <v>12</v>
-      </c>
-      <c r="G234" t="str">
+      <c r="G234" t="s">
+        <v>12</v>
+      </c>
+      <c r="H234" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'236','VANUATU');</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>235</v>
       </c>
@@ -12740,15 +12782,15 @@
       <c r="E235">
         <v>38</v>
       </c>
-      <c r="F235" t="s">
-        <v>12</v>
-      </c>
-      <c r="G235" t="str">
+      <c r="G235" t="s">
+        <v>12</v>
+      </c>
+      <c r="H235" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'237','VENEZUELA');</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>236</v>
       </c>
@@ -12761,15 +12803,15 @@
       <c r="E236">
         <v>38</v>
       </c>
-      <c r="F236" t="s">
-        <v>12</v>
-      </c>
-      <c r="G236" t="str">
+      <c r="G236" t="s">
+        <v>12</v>
+      </c>
+      <c r="H236" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'238','VIET NAM');</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>237</v>
       </c>
@@ -12782,15 +12824,15 @@
       <c r="E237">
         <v>38</v>
       </c>
-      <c r="F237" t="s">
-        <v>12</v>
-      </c>
-      <c r="G237" t="str">
+      <c r="G237" t="s">
+        <v>12</v>
+      </c>
+      <c r="H237" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'239','YEMEN');</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>238</v>
       </c>
@@ -12803,15 +12845,15 @@
       <c r="E238">
         <v>38</v>
       </c>
-      <c r="F238" t="s">
-        <v>12</v>
-      </c>
-      <c r="G238" t="str">
+      <c r="G238" t="s">
+        <v>12</v>
+      </c>
+      <c r="H238" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'240','ZAMBIA');</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>239</v>
       </c>
@@ -12824,15 +12866,15 @@
       <c r="E239">
         <v>38</v>
       </c>
-      <c r="F239" t="s">
-        <v>12</v>
-      </c>
-      <c r="G239" t="str">
+      <c r="G239" t="s">
+        <v>12</v>
+      </c>
+      <c r="H239" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'241','ZIMBABWE');</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>240</v>
       </c>
@@ -12845,15 +12887,15 @@
       <c r="E240">
         <v>38</v>
       </c>
-      <c r="F240" t="s">
-        <v>12</v>
-      </c>
-      <c r="G240" t="str">
+      <c r="G240" t="s">
+        <v>12</v>
+      </c>
+      <c r="H240" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'242','ANTÁRTIDA');</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>241</v>
       </c>
@@ -12866,15 +12908,15 @@
       <c r="E241">
         <v>38</v>
       </c>
-      <c r="F241" t="s">
-        <v>12</v>
-      </c>
-      <c r="G241" t="str">
+      <c r="G241" t="s">
+        <v>12</v>
+      </c>
+      <c r="H241" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'243','ISLA BOUVET');</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>242</v>
       </c>
@@ -12887,15 +12929,15 @@
       <c r="E242">
         <v>38</v>
       </c>
-      <c r="F242" t="s">
-        <v>12</v>
-      </c>
-      <c r="G242" t="str">
+      <c r="G242" t="s">
+        <v>12</v>
+      </c>
+      <c r="H242" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'244','TERRITORIO BRITÁNICO DE LA OCÉANO ÍNDICO');</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>243</v>
       </c>
@@ -12908,15 +12950,15 @@
       <c r="E243">
         <v>38</v>
       </c>
-      <c r="F243" t="s">
-        <v>12</v>
-      </c>
-      <c r="G243" t="str">
+      <c r="G243" t="s">
+        <v>12</v>
+      </c>
+      <c r="H243" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'245','TAIWÁN');</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>244</v>
       </c>
@@ -12929,15 +12971,15 @@
       <c r="E244">
         <v>38</v>
       </c>
-      <c r="F244" t="s">
-        <v>12</v>
-      </c>
-      <c r="G244" t="str">
+      <c r="G244" t="s">
+        <v>12</v>
+      </c>
+      <c r="H244" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'246','ISLA DE NAVIDAD');</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>245</v>
       </c>
@@ -12950,15 +12992,15 @@
       <c r="E245">
         <v>38</v>
       </c>
-      <c r="F245" t="s">
-        <v>12</v>
-      </c>
-      <c r="G245" t="str">
+      <c r="G245" t="s">
+        <v>12</v>
+      </c>
+      <c r="H245" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'247','ISLAS COCOS');</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>246</v>
       </c>
@@ -12971,15 +13013,15 @@
       <c r="E246">
         <v>38</v>
       </c>
-      <c r="F246" t="s">
-        <v>12</v>
-      </c>
-      <c r="G246" t="str">
+      <c r="G246" t="s">
+        <v>12</v>
+      </c>
+      <c r="H246" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'248','GEORGIA DEL SUR Y LAS ISLAS SANDWICH DEL SUR');</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>247</v>
       </c>
@@ -12992,15 +13034,15 @@
       <c r="E247">
         <v>38</v>
       </c>
-      <c r="F247" t="s">
-        <v>12</v>
-      </c>
-      <c r="G247" t="str">
+      <c r="G247" t="s">
+        <v>12</v>
+      </c>
+      <c r="H247" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'249','TERRITORIOS AUSTRALES FRANCESES');</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>248</v>
       </c>
@@ -13013,10 +13055,10 @@
       <c r="E248">
         <v>38</v>
       </c>
-      <c r="F248" t="s">
-        <v>12</v>
-      </c>
-      <c r="G248" t="str">
+      <c r="G248" t="s">
+        <v>12</v>
+      </c>
+      <c r="H248" t="str">
         <f t="shared" si="3"/>
         <v>insert into app.locations(type_id,code,name) values(38,'999','NO REGISTRA');</v>
       </c>
